--- a/va_facility_data_2025-02-20/Raymond G. Murphy Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Raymond%20G.%20Murphy%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Raymond G. Murphy Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Raymond%20G.%20Murphy%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R5d9456dd54414f32895318f9ff397ed9"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rfbad01d9c2ac4ddeb56e2d7473e37467"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R2cb0031fc92547d7836db173a93e30b2"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R0a8275eb063348629d5af26fcbb27c47"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra85a68e3a42d48be811223767f719257"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R203086ab97e54e0ab839a480a467a68a"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3e5a2db264ea4045a4cb0dc9ed97dd9f"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R5475d38be623445194921c8c374fc1a1"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra54f3964186540b8bb2952c2c01ab978"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Re2d5335a818a40528f2a07ac074d6a3a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Re493e6d862fb48089c9586749e8b5676"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9ef92de259f84ca39522184c3a36e3c0"/>
   </x:sheets>
 </x:workbook>
 </file>
